--- a/GOODLY/1.Power Query Tricks n Tips/1.Dynamically-Expand-All-Columns/Multiple Years.xlsx
+++ b/GOODLY/1.Power Query Tricks n Tips/1.Dynamically-Expand-All-Columns/Multiple Years.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28120"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TEMP\GoodlyPQ\1.Dynamically-Expand-All-Columns\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\PowerBI\GOODLY\1.Power Query Tricks n Tips\1.Dynamically-Expand-All-Columns\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7724984D-2F5D-4CB0-AD5B-548E91CA3582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D332F35-A217-4A34-9A3B-850233A53B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{98445F8E-5541-4A3B-9B83-7FF1FDA244D2}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="2" xr2:uid="{98445F8E-5541-4A3B-9B83-7FF1FDA244D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales2007" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Jindle Power Works</t>
+  </si>
+  <si>
+    <t>AddedCols</t>
   </si>
 </sst>
 </file>
@@ -508,21 +511,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D3304CB-1023-4A98-B965-614BC78667B1}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -542,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>39088</v>
       </c>
@@ -562,7 +565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>39090</v>
       </c>
@@ -582,7 +585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>39092</v>
       </c>
@@ -602,7 +605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>39096</v>
       </c>
@@ -622,7 +625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>39098</v>
       </c>
@@ -642,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>39103</v>
       </c>
@@ -662,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>39103</v>
       </c>
@@ -682,7 +685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>39106</v>
       </c>
@@ -702,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>39109</v>
       </c>
@@ -722,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>39111</v>
       </c>
@@ -742,7 +745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>39112</v>
       </c>
@@ -762,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>39114</v>
       </c>
@@ -782,7 +785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>39114</v>
       </c>
@@ -802,7 +805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>39116</v>
       </c>
@@ -822,7 +825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>39117</v>
       </c>
@@ -842,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>39119</v>
       </c>
@@ -862,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>39119</v>
       </c>
@@ -882,7 +885,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>39127</v>
       </c>
@@ -902,7 +905,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>39127</v>
       </c>
@@ -922,7 +925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>39130</v>
       </c>
@@ -942,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>39130</v>
       </c>
@@ -962,7 +965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>39134</v>
       </c>
@@ -982,7 +985,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>39135</v>
       </c>
@@ -1002,7 +1005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>39138</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>39145</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>39146</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>39146</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>39148</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>39154</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>39156</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>39157</v>
       </c>
@@ -1162,7 +1165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>39159</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>39162</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>39163</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>39168</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>39168</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>39169</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>39169</v>
       </c>
@@ -1302,7 +1305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>39171</v>
       </c>
@@ -1322,7 +1325,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>39181</v>
       </c>
@@ -1342,7 +1345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>39183</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>39186</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>39188</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>39190</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>39195</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>39196</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>39201</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>39202</v>
       </c>
@@ -1502,7 +1505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>39202</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>39203</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>39203</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>39206</v>
       </c>
@@ -1582,7 +1585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>39210</v>
       </c>
@@ -1602,7 +1605,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>39212</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>39218</v>
       </c>
@@ -1642,7 +1645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>39224</v>
       </c>
@@ -1662,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>39225</v>
       </c>
@@ -1682,7 +1685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>39227</v>
       </c>
@@ -1702,7 +1705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>39230</v>
       </c>
@@ -1722,7 +1725,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>39231</v>
       </c>
@@ -1742,7 +1745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>39235</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>39236</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>39237</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>39240</v>
       </c>
@@ -1822,7 +1825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>39244</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>39246</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>39249</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>39251</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>39253</v>
       </c>
@@ -1922,7 +1925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>39254</v>
       </c>
@@ -1942,7 +1945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>39261</v>
       </c>
@@ -1962,7 +1965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>39263</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>39263</v>
       </c>
@@ -2002,7 +2005,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>39265</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>39266</v>
       </c>
@@ -2042,7 +2045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>39268</v>
       </c>
@@ -2062,7 +2065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>39269</v>
       </c>
@@ -2082,7 +2085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>39273</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>39282</v>
       </c>
@@ -2122,7 +2125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>39288</v>
       </c>
@@ -2142,7 +2145,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>39291</v>
       </c>
@@ -2162,7 +2165,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>39292</v>
       </c>
@@ -2182,7 +2185,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>39296</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>39296</v>
       </c>
@@ -2222,7 +2225,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>39300</v>
       </c>
@@ -2242,7 +2245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>39300</v>
       </c>
@@ -2262,7 +2265,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>39300</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>39301</v>
       </c>
@@ -2302,7 +2305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>39304</v>
       </c>
@@ -2322,7 +2325,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>39309</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>39311</v>
       </c>
@@ -2362,7 +2365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>39312</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>39313</v>
       </c>
@@ -2402,7 +2405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>39317</v>
       </c>
@@ -2422,7 +2425,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>39317</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>39318</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>39319</v>
       </c>
@@ -2482,7 +2485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>39322</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>39327</v>
       </c>
@@ -2522,7 +2525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>39327</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>39330</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>39331</v>
       </c>
@@ -2582,7 +2585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>39331</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>39332</v>
       </c>
@@ -2622,7 +2625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>39333</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>39336</v>
       </c>
@@ -2662,7 +2665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>39339</v>
       </c>
@@ -2682,7 +2685,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>39341</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>39341</v>
       </c>
@@ -2722,7 +2725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>39345</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>39346</v>
       </c>
@@ -2762,7 +2765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>39347</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>39348</v>
       </c>
@@ -2802,7 +2805,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>39348</v>
       </c>
@@ -2822,7 +2825,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>39350</v>
       </c>
@@ -2842,7 +2845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>39352</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>39355</v>
       </c>
@@ -2882,7 +2885,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>39357</v>
       </c>
@@ -2902,7 +2905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>39360</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>39364</v>
       </c>
@@ -2942,7 +2945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>39365</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>39367</v>
       </c>
@@ -2982,7 +2985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>39367</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>39369</v>
       </c>
@@ -3022,7 +3025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>39370</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>39376</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>39377</v>
       </c>
@@ -3082,7 +3085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>39381</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>39382</v>
       </c>
@@ -3122,7 +3125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>39383</v>
       </c>
@@ -3142,7 +3145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>39386</v>
       </c>
@@ -3162,7 +3165,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>39395</v>
       </c>
@@ -3182,7 +3185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>39397</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>39398</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>39398</v>
       </c>
@@ -3242,7 +3245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>39399</v>
       </c>
@@ -3262,7 +3265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>39402</v>
       </c>
@@ -3282,7 +3285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>39403</v>
       </c>
@@ -3302,7 +3305,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>39404</v>
       </c>
@@ -3322,7 +3325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>39405</v>
       </c>
@@ -3342,7 +3345,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>39410</v>
       </c>
@@ -3362,7 +3365,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>39411</v>
       </c>
@@ -3382,7 +3385,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>39419</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>39419</v>
       </c>
@@ -3422,7 +3425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>39419</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>39428</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>39430</v>
       </c>
@@ -3482,7 +3485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>39434</v>
       </c>
@@ -3502,7 +3505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>39442</v>
       </c>
@@ -3522,7 +3525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>39442</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>39443</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>39446</v>
       </c>
@@ -3596,17 +3599,17 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.09765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3626,7 +3629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>38722</v>
       </c>
@@ -3646,7 +3649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>38725</v>
       </c>
@@ -3666,7 +3669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>38725</v>
       </c>
@@ -3686,7 +3689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>38735</v>
       </c>
@@ -3706,7 +3709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>38736</v>
       </c>
@@ -3726,7 +3729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>38738</v>
       </c>
@@ -3746,7 +3749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>38740</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>38741</v>
       </c>
@@ -3786,7 +3789,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>38744</v>
       </c>
@@ -3806,7 +3809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>38745</v>
       </c>
@@ -3826,7 +3829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>38746</v>
       </c>
@@ -3846,7 +3849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>38747</v>
       </c>
@@ -3866,7 +3869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>38759</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>38762</v>
       </c>
@@ -3906,7 +3909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>38764</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>38767</v>
       </c>
@@ -3946,7 +3949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>38767</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>38770</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>38772</v>
       </c>
@@ -4006,7 +4009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>38773</v>
       </c>
@@ -4026,7 +4029,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>38775</v>
       </c>
@@ -4046,7 +4049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>38777</v>
       </c>
@@ -4066,7 +4069,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>38781</v>
       </c>
@@ -4086,7 +4089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>38783</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>38784</v>
       </c>
@@ -4126,7 +4129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>38790</v>
       </c>
@@ -4146,7 +4149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>38790</v>
       </c>
@@ -4166,7 +4169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>38791</v>
       </c>
@@ -4186,7 +4189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>38792</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>38793</v>
       </c>
@@ -4226,7 +4229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>38796</v>
       </c>
@@ -4246,7 +4249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>38802</v>
       </c>
@@ -4266,7 +4269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>38803</v>
       </c>
@@ -4286,7 +4289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>38805</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>38806</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>38807</v>
       </c>
@@ -4346,7 +4349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>38807</v>
       </c>
@@ -4366,7 +4369,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38809</v>
       </c>
@@ -4386,7 +4389,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38815</v>
       </c>
@@ -4406,7 +4409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>38817</v>
       </c>
@@ -4426,7 +4429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>38818</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>38819</v>
       </c>
@@ -4466,7 +4469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>38822</v>
       </c>
@@ -4486,7 +4489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>38827</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>38829</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>38832</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>38835</v>
       </c>
@@ -4566,7 +4569,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>38838</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>38840</v>
       </c>
@@ -4606,7 +4609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>38843</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>38848</v>
       </c>
@@ -4646,7 +4649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>38850</v>
       </c>
@@ -4666,7 +4669,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>38852</v>
       </c>
@@ -4686,7 +4689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>38853</v>
       </c>
@@ -4706,7 +4709,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>38854</v>
       </c>
@@ -4726,7 +4729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>38859</v>
       </c>
@@ -4746,7 +4749,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>38861</v>
       </c>
@@ -4766,7 +4769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>38862</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>38866</v>
       </c>
@@ -4806,7 +4809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>38868</v>
       </c>
@@ -4826,7 +4829,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>38873</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>38875</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>38876</v>
       </c>
@@ -4886,7 +4889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>38879</v>
       </c>
@@ -4906,7 +4909,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>38882</v>
       </c>
@@ -4926,7 +4929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>38888</v>
       </c>
@@ -4946,7 +4949,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>38895</v>
       </c>
@@ -4966,7 +4969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>38896</v>
       </c>
@@ -4986,7 +4989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>38897</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>38898</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>38899</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>38902</v>
       </c>
@@ -5066,7 +5069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>38903</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>38907</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>38907</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>38908</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>38910</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>38911</v>
       </c>
@@ -5186,7 +5189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>38915</v>
       </c>
@@ -5206,7 +5209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>38920</v>
       </c>
@@ -5226,7 +5229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>38920</v>
       </c>
@@ -5246,7 +5249,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>38921</v>
       </c>
@@ -5266,7 +5269,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>38921</v>
       </c>
@@ -5286,7 +5289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>38926</v>
       </c>
@@ -5306,7 +5309,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>38927</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>38930</v>
       </c>
@@ -5346,7 +5349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>38932</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>38936</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>38940</v>
       </c>
@@ -5406,7 +5409,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>38941</v>
       </c>
@@ -5426,7 +5429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>38944</v>
       </c>
@@ -5446,7 +5449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>38945</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>38945</v>
       </c>
@@ -5486,7 +5489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>38949</v>
       </c>
@@ -5506,7 +5509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>38956</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>38956</v>
       </c>
@@ -5546,7 +5549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>38961</v>
       </c>
@@ -5566,7 +5569,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>38965</v>
       </c>
@@ -5586,7 +5589,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>38971</v>
       </c>
@@ -5606,7 +5609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>38971</v>
       </c>
@@ -5626,7 +5629,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>38981</v>
       </c>
@@ -5646,7 +5649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>38981</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>38981</v>
       </c>
@@ -5686,7 +5689,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>38982</v>
       </c>
@@ -5706,7 +5709,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>38987</v>
       </c>
@@ -5726,7 +5729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>38988</v>
       </c>
@@ -5746,7 +5749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>38988</v>
       </c>
@@ -5766,7 +5769,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>38998</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>39003</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>39005</v>
       </c>
@@ -5826,7 +5829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>39006</v>
       </c>
@@ -5846,7 +5849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>39007</v>
       </c>
@@ -5866,7 +5869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>39012</v>
       </c>
@@ -5886,7 +5889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>39022</v>
       </c>
@@ -5906,7 +5909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>39022</v>
       </c>
@@ -5926,7 +5929,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>39030</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>39033</v>
       </c>
@@ -5966,7 +5969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>39037</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>39042</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>39045</v>
       </c>
@@ -6026,7 +6029,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>39046</v>
       </c>
@@ -6046,7 +6049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>39048</v>
       </c>
@@ -6066,7 +6069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>39050</v>
       </c>
@@ -6086,7 +6089,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>39060</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>39060</v>
       </c>
@@ -6126,7 +6129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>39062</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>39065</v>
       </c>
@@ -6166,7 +6169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>39066</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>39069</v>
       </c>
@@ -6206,7 +6209,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>39078</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>39079</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>39080</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>39082</v>
       </c>
@@ -6293,18 +6296,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F8434C-1DA4-4B31-89FB-F71BFE49F29B}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="G53" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6323,8 +6327,11 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>38353</v>
       </c>
@@ -6344,7 +6351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>38353</v>
       </c>
@@ -6364,7 +6371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>38358</v>
       </c>
@@ -6384,7 +6391,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>38358</v>
       </c>
@@ -6404,7 +6411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>38361</v>
       </c>
@@ -6424,7 +6431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>38363</v>
       </c>
@@ -6444,7 +6451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>38364</v>
       </c>
@@ -6464,7 +6471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>38366</v>
       </c>
@@ -6484,7 +6491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>38366</v>
       </c>
@@ -6504,7 +6511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>38378</v>
       </c>
@@ -6524,7 +6531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>38381</v>
       </c>
@@ -6544,7 +6551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>38382</v>
       </c>
@@ -6564,7 +6571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>38387</v>
       </c>
@@ -6584,7 +6591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>38388</v>
       </c>
@@ -6604,7 +6611,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>38391</v>
       </c>
@@ -6624,7 +6631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>38392</v>
       </c>
@@ -6644,7 +6651,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>38396</v>
       </c>
@@ -6664,7 +6671,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>38397</v>
       </c>
@@ -6684,7 +6691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>38399</v>
       </c>
@@ -6704,7 +6711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>38401</v>
       </c>
@@ -6724,7 +6731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>38403</v>
       </c>
@@ -6744,7 +6751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>38403</v>
       </c>
@@ -6764,7 +6771,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>38407</v>
       </c>
@@ -6784,7 +6791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>38414</v>
       </c>
@@ -6804,7 +6811,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>38420</v>
       </c>
@@ -6824,7 +6831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>38423</v>
       </c>
@@ -6844,7 +6851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>38424</v>
       </c>
@@ -6864,7 +6871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>38429</v>
       </c>
@@ -6884,7 +6891,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>38430</v>
       </c>
@@ -6904,7 +6911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>38435</v>
       </c>
@@ -6924,7 +6931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>38435</v>
       </c>
@@ -6944,7 +6951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>38452</v>
       </c>
@@ -6964,7 +6971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>38458</v>
       </c>
@@ -6984,7 +6991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>38460</v>
       </c>
@@ -7004,7 +7011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>38460</v>
       </c>
@@ -7024,7 +7031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>38460</v>
       </c>
@@ -7044,7 +7051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>38461</v>
       </c>
@@ -7064,7 +7071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>38465</v>
       </c>
@@ -7084,7 +7091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>38466</v>
       </c>
@@ -7104,7 +7111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>38471</v>
       </c>
@@ -7124,7 +7131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>38480</v>
       </c>
@@ -7144,7 +7151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>38481</v>
       </c>
@@ -7164,7 +7171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>38482</v>
       </c>
@@ -7184,7 +7191,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>38483</v>
       </c>
@@ -7204,7 +7211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>38495</v>
       </c>
@@ -7224,7 +7231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>38498</v>
       </c>
@@ -7244,7 +7251,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>38498</v>
       </c>
@@ -7264,7 +7271,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>38499</v>
       </c>
@@ -7284,7 +7291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>38499</v>
       </c>
@@ -7304,7 +7311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>38500</v>
       </c>
@@ -7324,7 +7331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>38502</v>
       </c>
@@ -7344,7 +7351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>38505</v>
       </c>
@@ -7364,7 +7371,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>38509</v>
       </c>
@@ -7384,7 +7391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>38509</v>
       </c>
@@ -7404,7 +7411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>38510</v>
       </c>
@@ -7424,7 +7431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>38514</v>
       </c>
@@ -7444,7 +7451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>38515</v>
       </c>
@@ -7464,7 +7471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>38516</v>
       </c>
@@ -7484,7 +7491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>38516</v>
       </c>
@@ -7504,7 +7511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>38518</v>
       </c>
@@ -7524,7 +7531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>38518</v>
       </c>
@@ -7544,7 +7551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>38519</v>
       </c>
@@ -7564,7 +7571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>38524</v>
       </c>
@@ -7584,7 +7591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>38525</v>
       </c>
@@ -7604,7 +7611,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>38526</v>
       </c>
@@ -7624,7 +7631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>38528</v>
       </c>
@@ -7644,7 +7651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>38530</v>
       </c>
@@ -7664,7 +7671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>38533</v>
       </c>
@@ -7684,7 +7691,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>38539</v>
       </c>
@@ -7704,7 +7711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>38541</v>
       </c>
@@ -7724,7 +7731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>38541</v>
       </c>
@@ -7744,7 +7751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>38554</v>
       </c>
@@ -7764,7 +7771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>38559</v>
       </c>
@@ -7784,7 +7791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>38560</v>
       </c>
@@ -7804,7 +7811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>38564</v>
       </c>
@@ -7824,7 +7831,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>38564</v>
       </c>
@@ -7844,7 +7851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>38566</v>
       </c>
@@ -7864,7 +7871,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>38572</v>
       </c>
@@ -7884,7 +7891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>38573</v>
       </c>
@@ -7904,7 +7911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>38577</v>
       </c>
@@ -7924,7 +7931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>38581</v>
       </c>
@@ -7944,7 +7951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>38582</v>
       </c>
@@ -7964,7 +7971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>38585</v>
       </c>
@@ -7984,7 +7991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>38587</v>
       </c>
@@ -8004,7 +8011,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>38589</v>
       </c>
@@ -8024,7 +8031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>38594</v>
       </c>
@@ -8044,7 +8051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>38594</v>
       </c>
@@ -8064,7 +8071,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>38599</v>
       </c>
@@ -8084,7 +8091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>38600</v>
       </c>
@@ -8104,7 +8111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>38602</v>
       </c>
@@ -8124,7 +8131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>38606</v>
       </c>
@@ -8144,7 +8151,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>38611</v>
       </c>
@@ -8164,7 +8171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>38612</v>
       </c>
@@ -8184,7 +8191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>38614</v>
       </c>
@@ -8204,7 +8211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>38617</v>
       </c>
@@ -8224,7 +8231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>38617</v>
       </c>
@@ -8244,7 +8251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>38618</v>
       </c>
@@ -8264,7 +8271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>38627</v>
       </c>
@@ -8284,7 +8291,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>38627</v>
       </c>
@@ -8304,7 +8311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>38628</v>
       </c>
@@ -8324,7 +8331,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>38628</v>
       </c>
@@ -8344,7 +8351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>38630</v>
       </c>
@@ -8364,7 +8371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>38632</v>
       </c>
@@ -8384,7 +8391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>38632</v>
       </c>
@@ -8404,7 +8411,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>38634</v>
       </c>
@@ -8424,7 +8431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>38635</v>
       </c>
@@ -8444,7 +8451,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>38637</v>
       </c>
@@ -8464,7 +8471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>38641</v>
       </c>
@@ -8484,7 +8491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>38648</v>
       </c>
@@ -8504,7 +8511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>38653</v>
       </c>
@@ -8524,7 +8531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>38659</v>
       </c>
@@ -8544,7 +8551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>38660</v>
       </c>
@@ -8564,7 +8571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>38660</v>
       </c>
@@ -8584,7 +8591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>38668</v>
       </c>
@@ -8604,7 +8611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>38672</v>
       </c>
@@ -8624,7 +8631,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>38673</v>
       </c>
@@ -8644,7 +8651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>38675</v>
       </c>
@@ -8664,7 +8671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>38676</v>
       </c>
@@ -8684,7 +8691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>38676</v>
       </c>
@@ -8704,7 +8711,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>38676</v>
       </c>
@@ -8724,7 +8731,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>38679</v>
       </c>
@@ -8744,7 +8751,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>38679</v>
       </c>
@@ -8764,7 +8771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>38680</v>
       </c>
@@ -8784,7 +8791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>38681</v>
       </c>
@@ -8804,7 +8811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>38681</v>
       </c>
@@ -8824,7 +8831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>38683</v>
       </c>
@@ -8844,7 +8851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>38683</v>
       </c>
@@ -8864,7 +8871,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>38684</v>
       </c>
@@ -8884,7 +8891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>38686</v>
       </c>
@@ -8904,7 +8911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>38694</v>
       </c>
@@ -8924,7 +8931,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>38696</v>
       </c>
@@ -8944,7 +8951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>38697</v>
       </c>
@@ -8964,7 +8971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>38698</v>
       </c>
@@ -8984,7 +8991,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>38703</v>
       </c>
@@ -9004,7 +9011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>38706</v>
       </c>
@@ -9024,7 +9031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>38706</v>
       </c>
@@ -9044,7 +9051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>38712</v>
       </c>
@@ -9064,7 +9071,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>38713</v>
       </c>
@@ -9084,7 +9091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>38714</v>
       </c>
@@ -9104,7 +9111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>38716</v>
       </c>
@@ -9124,7 +9131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>38717</v>
       </c>
@@ -9144,7 +9151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>38717</v>
       </c>
@@ -9176,16 +9183,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5765CEB1-DECF-443D-B0E5-E7B5B01FD66B}">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9205,7 +9212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>43831</v>
       </c>
@@ -9225,7 +9232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>43831</v>
       </c>
@@ -9245,7 +9252,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>43836</v>
       </c>
@@ -9265,7 +9272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>43836</v>
       </c>
@@ -9285,7 +9292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>43839</v>
       </c>
@@ -9305,7 +9312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>43841</v>
       </c>
@@ -9325,7 +9332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>43842</v>
       </c>
@@ -9345,7 +9352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>43844</v>
       </c>
@@ -9365,7 +9372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>43844</v>
       </c>
@@ -9385,7 +9392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>43856</v>
       </c>
@@ -9405,7 +9412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>43859</v>
       </c>
@@ -9425,7 +9432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>43860</v>
       </c>
@@ -9445,7 +9452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>43865</v>
       </c>
@@ -9465,7 +9472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>43866</v>
       </c>
@@ -9485,7 +9492,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>43869</v>
       </c>
@@ -9505,7 +9512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>43870</v>
       </c>
@@ -9525,7 +9532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>43874</v>
       </c>
@@ -9545,7 +9552,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>43875</v>
       </c>
@@ -9565,7 +9572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>43877</v>
       </c>
@@ -9585,7 +9592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>43879</v>
       </c>
@@ -9605,7 +9612,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>43881</v>
       </c>
@@ -9625,7 +9632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>43881</v>
       </c>
@@ -9645,7 +9652,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>43885</v>
       </c>
@@ -9665,7 +9672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>43893</v>
       </c>
@@ -9685,7 +9692,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>43899</v>
       </c>
@@ -9705,7 +9712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>43902</v>
       </c>
@@ -9725,7 +9732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>43903</v>
       </c>
@@ -9745,7 +9752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>43908</v>
       </c>
@@ -9765,7 +9772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>43909</v>
       </c>
@@ -9785,7 +9792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>43914</v>
       </c>
@@ -9805,7 +9812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>43914</v>
       </c>
@@ -9825,7 +9832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>43931</v>
       </c>
@@ -9845,7 +9852,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>43937</v>
       </c>
@@ -9865,7 +9872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>43939</v>
       </c>
@@ -9885,7 +9892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>43939</v>
       </c>
@@ -9905,7 +9912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>43939</v>
       </c>
@@ -9925,7 +9932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>43940</v>
       </c>
@@ -9945,7 +9952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>43944</v>
       </c>
@@ -9965,7 +9972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>43945</v>
       </c>
@@ -9985,7 +9992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>43950</v>
       </c>
@@ -10005,7 +10012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>43959</v>
       </c>
@@ -10025,7 +10032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>43960</v>
       </c>
@@ -10045,7 +10052,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>43961</v>
       </c>
@@ -10065,7 +10072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>43962</v>
       </c>
@@ -10085,7 +10092,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>43974</v>
       </c>
@@ -10105,7 +10112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>43977</v>
       </c>
@@ -10125,7 +10132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>43977</v>
       </c>
@@ -10145,7 +10152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>43978</v>
       </c>
@@ -10165,7 +10172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>43978</v>
       </c>
@@ -10185,7 +10192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>43979</v>
       </c>
@@ -10205,7 +10212,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>43981</v>
       </c>
@@ -10225,7 +10232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>43984</v>
       </c>
@@ -10245,7 +10252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>43988</v>
       </c>
@@ -10265,7 +10272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>43988</v>
       </c>
@@ -10285,7 +10292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>43989</v>
       </c>
@@ -10305,7 +10312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>43993</v>
       </c>
@@ -10325,7 +10332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>43994</v>
       </c>
@@ -10345,7 +10352,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>43995</v>
       </c>
@@ -10365,7 +10372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>43995</v>
       </c>
@@ -10385,7 +10392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>43997</v>
       </c>
@@ -10405,7 +10412,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>43997</v>
       </c>
@@ -10425,7 +10432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>43998</v>
       </c>
@@ -10445,7 +10452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>44003</v>
       </c>
@@ -10465,7 +10472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>44004</v>
       </c>
@@ -10485,7 +10492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>44005</v>
       </c>
@@ -10505,7 +10512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>44007</v>
       </c>
@@ -10525,7 +10532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>44009</v>
       </c>
@@ -10545,7 +10552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>44012</v>
       </c>
@@ -10565,7 +10572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>44018</v>
       </c>
@@ -10585,7 +10592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>44020</v>
       </c>
@@ -10605,7 +10612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>44020</v>
       </c>
@@ -10625,7 +10632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
         <v>44033</v>
       </c>
@@ -10645,7 +10652,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>44038</v>
       </c>
@@ -10665,7 +10672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>44039</v>
       </c>
@@ -10685,7 +10692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>44043</v>
       </c>
@@ -10705,7 +10712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>44043</v>
       </c>
@@ -10725,7 +10732,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>44045</v>
       </c>
@@ -10745,7 +10752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>44051</v>
       </c>
@@ -10765,7 +10772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>44052</v>
       </c>
@@ -10785,7 +10792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>44056</v>
       </c>
@@ -10805,7 +10812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>44060</v>
       </c>
@@ -10825,7 +10832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>44061</v>
       </c>
@@ -10845,7 +10852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>44064</v>
       </c>
@@ -10865,7 +10872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>44066</v>
       </c>
@@ -10885,7 +10892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>44068</v>
       </c>
@@ -10905,7 +10912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>44073</v>
       </c>
@@ -10925,7 +10932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>44073</v>
       </c>
@@ -10945,7 +10952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>44078</v>
       </c>
@@ -10965,7 +10972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>44079</v>
       </c>
@@ -10985,7 +10992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>44081</v>
       </c>
@@ -11005,7 +11012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>44085</v>
       </c>
@@ -11025,7 +11032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>44090</v>
       </c>
@@ -11045,7 +11052,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="1">
         <v>44091</v>
       </c>
@@ -11065,7 +11072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>44093</v>
       </c>
@@ -11085,7 +11092,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>44096</v>
       </c>
@@ -11105,7 +11112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>44096</v>
       </c>
@@ -11125,7 +11132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>44097</v>
       </c>
@@ -11145,7 +11152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>44106</v>
       </c>
@@ -11165,7 +11172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>44106</v>
       </c>
@@ -11185,7 +11192,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>44107</v>
       </c>
@@ -11205,7 +11212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>44107</v>
       </c>
@@ -11225,7 +11232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>44109</v>
       </c>
@@ -11245,7 +11252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>44111</v>
       </c>
@@ -11265,7 +11272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>44111</v>
       </c>
@@ -11285,7 +11292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>44113</v>
       </c>
@@ -11305,7 +11312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>44114</v>
       </c>
@@ -11325,7 +11332,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>44116</v>
       </c>
@@ -11345,7 +11352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>44120</v>
       </c>
@@ -11365,7 +11372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>44127</v>
       </c>
@@ -11385,7 +11392,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>44132</v>
       </c>
@@ -11405,7 +11412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>44138</v>
       </c>
@@ -11425,7 +11432,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>44139</v>
       </c>
@@ -11445,7 +11452,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>44139</v>
       </c>
@@ -11465,7 +11472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="1">
         <v>44147</v>
       </c>
@@ -11485,7 +11492,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>44151</v>
       </c>
@@ -11505,7 +11512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>44152</v>
       </c>
@@ -11525,7 +11532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>44154</v>
       </c>
@@ -11545,7 +11552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>44155</v>
       </c>
@@ -11565,7 +11572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>44155</v>
       </c>
@@ -11585,7 +11592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>44155</v>
       </c>
@@ -11605,7 +11612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>44158</v>
       </c>
@@ -11625,7 +11632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>44158</v>
       </c>
@@ -11645,7 +11652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>44159</v>
       </c>
@@ -11665,7 +11672,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>44160</v>
       </c>
@@ -11685,7 +11692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>44160</v>
       </c>
@@ -11705,7 +11712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>44162</v>
       </c>
@@ -11725,7 +11732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>44162</v>
       </c>
@@ -11745,7 +11752,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>44163</v>
       </c>
@@ -11765,7 +11772,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>44165</v>
       </c>
@@ -11785,7 +11792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>44173</v>
       </c>
@@ -11805,7 +11812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>44175</v>
       </c>
@@ -11825,7 +11832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>44176</v>
       </c>
@@ -11845,7 +11852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>44177</v>
       </c>
@@ -11865,7 +11872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>44182</v>
       </c>
@@ -11885,7 +11892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>44185</v>
       </c>
@@ -11905,7 +11912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>44185</v>
       </c>
@@ -11925,7 +11932,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>44191</v>
       </c>
@@ -11945,7 +11952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>44192</v>
       </c>
@@ -11965,7 +11972,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>44193</v>
       </c>
@@ -11985,7 +11992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>44195</v>
       </c>
@@ -12005,7 +12012,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>44196</v>
       </c>
@@ -12025,7 +12032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>44196</v>
       </c>
